--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>835981.9961408864</v>
+        <v>834076.5844392093</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18353278.03885776</v>
+        <v>18353278.03885777</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2770323.719445871</v>
+        <v>2770323.719445873</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7228068.784473344</v>
+        <v>7228068.784473346</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>62.5889560159096</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.5036454882133</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>70.49892341070309</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>211.7154716267596</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>110.4758165589848</v>
       </c>
       <c r="D5" t="n">
-        <v>349.8856174678504</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -913,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>39.86240148331895</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>365.3326246353246</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>228.2227601214815</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1353,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>84.65303195710318</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>25.04459329792188</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.90314704719351</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>88.92297745882071</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>61.23334745463571</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>24.34798265987758</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>159.4776892425342</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H13" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I13" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.49413443704392</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>161.4284329972273</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>109.3562505677833</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.651654699823673</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>255.6996702193238</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>105.6511861052525</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H16" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I16" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S16" t="n">
-        <v>161.4284329972273</v>
+        <v>19.3168613118341</v>
       </c>
       <c r="T16" t="n">
         <v>239.1884404287796</v>
@@ -1849,13 +1849,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>203.4255847185697</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>284.5725276059729</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>163.1323979083097</v>
       </c>
       <c r="F19" t="n">
-        <v>3.959704450847008</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>161.4284329972273</v>
@@ -2083,10 +2083,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2339199058719</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T20" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>112.0470696305083</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.313399561521824</v>
+        <v>163.1323979083095</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H22" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>161.4284329972273</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>143.097814809954</v>
+        <v>163.1323979083097</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.1924286780001</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>161.4284329972273</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.90314704719351</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T26" t="n">
         <v>214.7935231211468</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.1470870047689</v>
+        <v>163.1323979083097</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>161.4284329972273</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>163.1323979083097</v>
       </c>
       <c r="F31" t="n">
-        <v>142.7441196992791</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>161.4284329972273</v>
@@ -3031,7 +3031,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868333</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3040,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>420.872939992494</v>
       </c>
       <c r="G32" t="n">
         <v>399.3995456585952</v>
@@ -3189,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>163.1323979083097</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8498124567469</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U34" t="n">
         <v>277.3606783057509</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3283,7 +3283,7 @@
         <v>399.3995456585952</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>157.5778890391789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>148.7331033482391</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>53.55278778854831</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I37" t="n">
         <v>86.68250837722755</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>161.4284329972273</v>
@@ -3480,10 +3480,10 @@
         <v>239.1884404287796</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3606783057509</v>
+        <v>167.6907763732802</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>83.113659529245</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.7122430338547</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6996702193238</v>
+        <v>194.2181282818218</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3669,10 +3669,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.3565367007746</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I40" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.49413443704394</v>
+        <v>26.85680619338054</v>
       </c>
       <c r="S40" t="n">
         <v>161.4284329972273</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T41" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.6996702193238</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>202.5577222843787</v>
       </c>
       <c r="X41" t="n">
-        <v>2.939561804505642</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>168.7294306028197</v>
       </c>
       <c r="G43" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H43" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T43" t="n">
-        <v>154.0664939755834</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U43" t="n">
         <v>277.3606783057509</v>
@@ -3982,16 +3982,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>399.3995456585952</v>
+        <v>382.2757613214383</v>
       </c>
       <c r="H44" t="n">
         <v>285.7122430338547</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>132.9660989018343</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>162.7787027976348</v>
       </c>
       <c r="H46" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>161.4284329972273</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.3516378062423</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455.1087569162936</v>
+        <v>1369.36159051154</v>
       </c>
       <c r="C2" t="n">
-        <v>432.2484309699978</v>
+        <v>942.4608605248407</v>
       </c>
       <c r="D2" t="n">
-        <v>412.9962141954022</v>
+        <v>519.1682397098409</v>
       </c>
       <c r="E2" t="n">
-        <v>391.0596783836638</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F2" t="n">
-        <v>369.9759006134681</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H2" t="n">
         <v>71.80886371735554</v>
@@ -4336,22 +4336,22 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M2" t="n">
-        <v>1769.873171385915</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N2" t="n">
-        <v>1769.873171385915</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O2" t="n">
-        <v>1769.873171385915</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P2" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4360,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1008.829727808632</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>612.4383781089787</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>604.75878331713</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y2" t="n">
-        <v>470.9167171674196</v>
+        <v>1432.582758204378</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.8664100592503</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="C4" t="n">
-        <v>686.8664100592503</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="D4" t="n">
-        <v>523.549637186021</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E4" t="n">
-        <v>452.338603437836</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F4" t="n">
-        <v>280.4768292123964</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G4" t="n">
         <v>280.4768292123964</v>
@@ -4494,10 +4494,10 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N4" t="n">
         <v>1072.572152198911</v>
@@ -4515,25 +4515,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1341.367650210208</v>
       </c>
       <c r="V4" t="n">
-        <v>1103.375147081574</v>
+        <v>1059.656182818237</v>
       </c>
       <c r="W4" t="n">
-        <v>1103.375147081574</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="X4" t="n">
-        <v>1103.375147081574</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.032378771316</v>
+        <v>784.8037789907503</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>754.3794845092605</v>
+        <v>245.971786341997</v>
       </c>
       <c r="C5" t="n">
-        <v>731.5191585629647</v>
+        <v>134.3800524440326</v>
       </c>
       <c r="D5" t="n">
-        <v>378.0993429388733</v>
+        <v>115.1278356694369</v>
       </c>
       <c r="E5" t="n">
-        <v>356.162807127135</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F5" t="n">
-        <v>335.0790293569393</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I5" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="M5" t="n">
-        <v>1313.087264683184</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="O5" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P5" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.244713637749</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V5" t="n">
-        <v>1587.244713637749</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.244713637749</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="X5" t="n">
-        <v>1579.5651188459</v>
+        <v>1071.157420678637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1174.227848800791</v>
+        <v>665.8201506335271</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K6" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="L6" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="M6" t="n">
-        <v>950.4838058662885</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253902</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253902</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.32454672534</v>
+        <v>953.8361452792958</v>
       </c>
       <c r="C7" t="n">
-        <v>848.3519836042556</v>
+        <v>781.8635821582118</v>
       </c>
       <c r="D7" t="n">
-        <v>685.0352107310263</v>
+        <v>618.5468092849825</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N7" t="n">
         <v>1072.572152198911</v>
@@ -4749,28 +4749,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.599623041337</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V7" t="n">
-        <v>1845.599623041337</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W7" t="n">
-        <v>1679.397180301858</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="X7" t="n">
-        <v>1436.833283747663</v>
+        <v>994.1011972826483</v>
       </c>
       <c r="Y7" t="n">
-        <v>1210.490515437405</v>
+        <v>994.1011972826483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>561.2807824307324</v>
+        <v>1312.407503826393</v>
       </c>
       <c r="C8" t="n">
-        <v>538.4204564844366</v>
+        <v>885.5067738396929</v>
       </c>
       <c r="D8" t="n">
-        <v>519.1682397098409</v>
+        <v>462.2141530246931</v>
       </c>
       <c r="E8" t="n">
-        <v>497.2317038981026</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G8" t="n">
         <v>71.80886371735554</v>
@@ -4804,22 +4804,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L8" t="n">
-        <v>358.3859952497895</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M8" t="n">
-        <v>358.3859952497895</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N8" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O8" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P8" t="n">
         <v>1271.957808655251</v>
@@ -4831,25 +4831,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1394.146011559221</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>1394.146011559221</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.466416767372</v>
+        <v>1733.552734122628</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.1291467222625</v>
+        <v>1732.255868117923</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L9" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M9" t="n">
-        <v>772.8420314050605</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.627938107791</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.3475092652635</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="C10" t="n">
-        <v>538.3475092652635</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="D10" t="n">
-        <v>375.0307363920342</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0307363920342</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T10" t="n">
-        <v>1602.260275267237</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.075826767541</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.36435937557</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W10" t="n">
-        <v>954.8562462875871</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X10" t="n">
-        <v>954.8562462875871</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.5134779773291</v>
+        <v>280.4768292123964</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1170.558596375935</v>
+        <v>1328.719837387281</v>
       </c>
       <c r="C11" t="n">
-        <v>1170.558596375935</v>
+        <v>901.8191074005815</v>
       </c>
       <c r="D11" t="n">
-        <v>1170.558596375935</v>
+        <v>478.5264865855818</v>
       </c>
       <c r="E11" t="n">
-        <v>744.5816565237928</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="F11" t="n">
-        <v>744.5816565237928</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="G11" t="n">
-        <v>341.1477720201613</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="H11" t="n">
         <v>52.54954673343935</v>
@@ -5041,52 +5041,52 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J11" t="n">
-        <v>262.2349354820255</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K11" t="n">
-        <v>912.5355763083375</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L11" t="n">
-        <v>1014.60792398163</v>
+        <v>1242.823003144169</v>
       </c>
       <c r="M11" t="n">
-        <v>1133.329361588684</v>
+        <v>1361.544440751223</v>
       </c>
       <c r="N11" t="n">
-        <v>1783.630002414996</v>
+        <v>1482.936659199762</v>
       </c>
       <c r="O11" t="n">
-        <v>1896.090252065195</v>
+        <v>1595.396908849961</v>
       </c>
       <c r="P11" t="n">
-        <v>2546.390892891507</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q11" t="n">
-        <v>2606.431290018001</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R11" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S11" t="n">
-        <v>2543.736784099045</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T11" t="n">
-        <v>2326.773629431219</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="U11" t="n">
-        <v>2068.491134260185</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="V11" t="n">
-        <v>1978.669944907841</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="W11" t="n">
-        <v>1582.278595208188</v>
+        <v>2565.625470556174</v>
       </c>
       <c r="X11" t="n">
-        <v>1170.558596375935</v>
+        <v>2153.905471723921</v>
       </c>
       <c r="Y11" t="n">
-        <v>1170.558596375935</v>
+        <v>1748.568201678811</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I12" t="n">
-        <v>52.88186258107765</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J12" t="n">
-        <v>369.4257346410393</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K12" t="n">
-        <v>423.9001043444472</v>
+        <v>447.3574101888589</v>
       </c>
       <c r="L12" t="n">
-        <v>504.6750299031556</v>
+        <v>528.1323357475674</v>
       </c>
       <c r="M12" t="n">
-        <v>602.0810492010578</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N12" t="n">
-        <v>704.4065207879281</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O12" t="n">
-        <v>794.4036196665985</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P12" t="n">
         <v>1208.867406764147</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1114.741805091444</v>
+        <v>727.0150220459325</v>
       </c>
       <c r="C13" t="n">
-        <v>942.7692419703596</v>
+        <v>555.0424589248485</v>
       </c>
       <c r="D13" t="n">
-        <v>779.4524690971303</v>
+        <v>555.0424589248485</v>
       </c>
       <c r="E13" t="n">
-        <v>613.2442632499839</v>
+        <v>530.4485370461842</v>
       </c>
       <c r="F13" t="n">
-        <v>441.3824890245443</v>
+        <v>358.5867628207446</v>
       </c>
       <c r="G13" t="n">
-        <v>280.2939140320855</v>
+        <v>192.7358247621587</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1076360033662</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="I13" t="n">
         <v>52.54954673343935</v>
@@ -5202,7 +5202,7 @@
         <v>138.1760543079874</v>
       </c>
       <c r="K13" t="n">
-        <v>410.938397972097</v>
+        <v>410.9383979720969</v>
       </c>
       <c r="L13" t="n">
         <v>824.7922715484103</v>
@@ -5217,34 +5217,34 @@
         <v>2128.424533910869</v>
       </c>
       <c r="P13" t="n">
-        <v>2467.154185086671</v>
+        <v>2467.154185086672</v>
       </c>
       <c r="Q13" t="n">
-        <v>2627.477336671967</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="R13" t="n">
-        <v>2598.695382695155</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="S13" t="n">
-        <v>2435.636359465633</v>
+        <v>2464.418313442445</v>
       </c>
       <c r="T13" t="n">
-        <v>2194.031874184037</v>
+        <v>2222.813828160849</v>
       </c>
       <c r="U13" t="n">
-        <v>1913.869572865097</v>
+        <v>1942.651526841909</v>
       </c>
       <c r="V13" t="n">
-        <v>1632.158105473125</v>
+        <v>1660.940059449938</v>
       </c>
       <c r="W13" t="n">
-        <v>1357.305701645638</v>
+        <v>1386.087655622451</v>
       </c>
       <c r="X13" t="n">
-        <v>1114.741805091444</v>
+        <v>1143.523759068256</v>
       </c>
       <c r="Y13" t="n">
-        <v>1114.741805091444</v>
+        <v>917.1809907579982</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>909.273099641672</v>
+        <v>855.0425156831699</v>
       </c>
       <c r="C14" t="n">
-        <v>482.3723696549721</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="D14" t="n">
-        <v>482.3723696549721</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="E14" t="n">
-        <v>482.3723696549721</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="F14" t="n">
-        <v>57.24818784437235</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="G14" t="n">
-        <v>52.54954673343935</v>
+        <v>341.1477720201613</v>
       </c>
       <c r="H14" t="n">
         <v>52.54954673343935</v>
@@ -5278,28 +5278,28 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J14" t="n">
-        <v>98.72079593693901</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K14" t="n">
-        <v>749.0214367632509</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L14" t="n">
-        <v>851.093784436543</v>
+        <v>1242.823003144169</v>
       </c>
       <c r="M14" t="n">
-        <v>969.8152220435974</v>
+        <v>1361.544440751223</v>
       </c>
       <c r="N14" t="n">
-        <v>1091.207440492136</v>
+        <v>1482.936659199762</v>
       </c>
       <c r="O14" t="n">
-        <v>1741.508081318448</v>
+        <v>1595.396908849961</v>
       </c>
       <c r="P14" t="n">
-        <v>2391.808722144759</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q14" t="n">
-        <v>2606.431290018001</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R14" t="n">
         <v>2627.477336671967</v>
@@ -5314,16 +5314,16 @@
         <v>2068.491134260185</v>
       </c>
       <c r="V14" t="n">
-        <v>1711.001719386435</v>
+        <v>2068.491134260185</v>
       </c>
       <c r="W14" t="n">
-        <v>1314.610369686782</v>
+        <v>1672.099784560532</v>
       </c>
       <c r="X14" t="n">
-        <v>1314.610369686782</v>
+        <v>1260.37978572828</v>
       </c>
       <c r="Y14" t="n">
-        <v>909.273099641672</v>
+        <v>855.0425156831699</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I15" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J15" t="n">
-        <v>77.32324217144819</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K15" t="n">
-        <v>314.4268669092681</v>
+        <v>769.2749085720043</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2017924679765</v>
+        <v>850.0498341307126</v>
       </c>
       <c r="M15" t="n">
-        <v>492.6078117658786</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N15" t="n">
-        <v>594.9332833527488</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O15" t="n">
-        <v>1245.233924179061</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P15" t="n">
-        <v>1314.322907049052</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q15" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R15" t="n">
         <v>1845.095538917461</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>888.3990367811862</v>
+        <v>1031.946078887644</v>
       </c>
       <c r="C16" t="n">
-        <v>781.6806669779008</v>
+        <v>859.97351576656</v>
       </c>
       <c r="D16" t="n">
-        <v>618.3638941046715</v>
+        <v>696.6567428933307</v>
       </c>
       <c r="E16" t="n">
-        <v>452.1556882575251</v>
+        <v>530.4485370461842</v>
       </c>
       <c r="F16" t="n">
-        <v>280.2939140320855</v>
+        <v>358.5867628207446</v>
       </c>
       <c r="G16" t="n">
-        <v>280.2939140320855</v>
+        <v>192.7358247621587</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1076360033662</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="I16" t="n">
         <v>52.54954673343935</v>
@@ -5463,25 +5463,25 @@
         <v>2598.695382695156</v>
       </c>
       <c r="S16" t="n">
-        <v>2435.636359465633</v>
+        <v>2579.183401572091</v>
       </c>
       <c r="T16" t="n">
-        <v>2194.031874184037</v>
+        <v>2337.578916290495</v>
       </c>
       <c r="U16" t="n">
-        <v>1913.869572865097</v>
+        <v>2057.416614971555</v>
       </c>
       <c r="V16" t="n">
-        <v>1632.158105473126</v>
+        <v>1775.705147579584</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.305701645639</v>
+        <v>1500.852743752097</v>
       </c>
       <c r="X16" t="n">
-        <v>1114.741805091444</v>
+        <v>1258.288847197902</v>
       </c>
       <c r="Y16" t="n">
-        <v>888.3990367811862</v>
+        <v>1031.946078887644</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1327.867079345739</v>
+        <v>1110.907605176898</v>
       </c>
       <c r="C17" t="n">
-        <v>900.9663493590389</v>
+        <v>684.0068751901977</v>
       </c>
       <c r="D17" t="n">
-        <v>477.6737285440391</v>
+        <v>478.5264865855818</v>
       </c>
       <c r="E17" t="n">
-        <v>477.6737285440391</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="F17" t="n">
         <v>52.54954673343935</v>
@@ -5518,49 +5518,49 @@
         <v>490.4500146445652</v>
       </c>
       <c r="K17" t="n">
-        <v>977.9407203533972</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L17" t="n">
-        <v>1080.013068026689</v>
+        <v>1791.051296297189</v>
       </c>
       <c r="M17" t="n">
-        <v>1730.313708853001</v>
+        <v>1909.772733904243</v>
       </c>
       <c r="N17" t="n">
-        <v>1851.70592730154</v>
+        <v>2031.164952352781</v>
       </c>
       <c r="O17" t="n">
-        <v>1964.166176951739</v>
+        <v>2143.625202002981</v>
       </c>
       <c r="P17" t="n">
-        <v>2054.541985528772</v>
+        <v>2234.001010580014</v>
       </c>
       <c r="Q17" t="n">
-        <v>2606.431290018001</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R17" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S17" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T17" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="U17" t="n">
-        <v>2369.194841500933</v>
+        <v>2285.454288928011</v>
       </c>
       <c r="V17" t="n">
-        <v>2011.705426627183</v>
+        <v>1927.96487405426</v>
       </c>
       <c r="W17" t="n">
-        <v>1615.31407692753</v>
+        <v>1927.96487405426</v>
       </c>
       <c r="X17" t="n">
-        <v>1615.31407692753</v>
+        <v>1516.244875222007</v>
       </c>
       <c r="Y17" t="n">
-        <v>1327.867079345739</v>
+        <v>1110.907605176898</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>76.33916842548948</v>
       </c>
       <c r="J18" t="n">
-        <v>100.78054801586</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K18" t="n">
-        <v>155.2549177192678</v>
+        <v>769.2749085720043</v>
       </c>
       <c r="L18" t="n">
-        <v>805.5555585455797</v>
+        <v>850.0498341307126</v>
       </c>
       <c r="M18" t="n">
-        <v>1455.856199371892</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N18" t="n">
-        <v>1641.901870069259</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O18" t="n">
-        <v>1731.898968947929</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P18" t="n">
-        <v>1800.98795181792</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q18" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R18" t="n">
         <v>1845.095538917461</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>698.2330680691205</v>
+        <v>727.0150220459325</v>
       </c>
       <c r="C19" t="n">
-        <v>526.2605049480364</v>
+        <v>555.0424589248485</v>
       </c>
       <c r="D19" t="n">
-        <v>362.9437320748071</v>
+        <v>555.0424589248485</v>
       </c>
       <c r="E19" t="n">
-        <v>196.7355262276607</v>
+        <v>390.2622590174649</v>
       </c>
       <c r="F19" t="n">
-        <v>192.7358247621587</v>
+        <v>218.4004847920253</v>
       </c>
       <c r="G19" t="n">
-        <v>192.7358247621587</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="H19" t="n">
         <v>52.54954673343935</v>
@@ -5697,28 +5697,28 @@
         <v>2627.477336671968</v>
       </c>
       <c r="R19" t="n">
-        <v>2598.695382695156</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="S19" t="n">
-        <v>2435.636359465633</v>
+        <v>2464.418313442445</v>
       </c>
       <c r="T19" t="n">
-        <v>2194.031874184037</v>
+        <v>2222.813828160849</v>
       </c>
       <c r="U19" t="n">
-        <v>1913.869572865097</v>
+        <v>1942.651526841909</v>
       </c>
       <c r="V19" t="n">
-        <v>1632.158105473126</v>
+        <v>1660.940059449938</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.305701645639</v>
+        <v>1386.087655622451</v>
       </c>
       <c r="X19" t="n">
-        <v>1114.741805091444</v>
+        <v>1143.523759068256</v>
       </c>
       <c r="Y19" t="n">
-        <v>888.3990367811862</v>
+        <v>917.1809907579982</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1115.417512430628</v>
+        <v>1751.23316635771</v>
       </c>
       <c r="C20" t="n">
-        <v>901.0398155560097</v>
+        <v>1324.33243637101</v>
       </c>
       <c r="D20" t="n">
-        <v>901.0398155560097</v>
+        <v>901.0398155560102</v>
       </c>
       <c r="E20" t="n">
-        <v>475.0628757038672</v>
+        <v>475.0628757038678</v>
       </c>
       <c r="F20" t="n">
-        <v>475.0628757038672</v>
+        <v>475.0628757038678</v>
       </c>
       <c r="G20" t="n">
-        <v>71.62899120023566</v>
+        <v>71.62899120023626</v>
       </c>
       <c r="H20" t="n">
-        <v>71.62899120023566</v>
+        <v>71.62899120023626</v>
       </c>
       <c r="I20" t="n">
-        <v>71.62899120023566</v>
+        <v>71.62899120023626</v>
       </c>
       <c r="J20" t="n">
-        <v>117.8002404037353</v>
+        <v>509.5294591113621</v>
       </c>
       <c r="K20" t="n">
-        <v>946.159246275465</v>
+        <v>1337.888464983092</v>
       </c>
       <c r="L20" t="n">
-        <v>1048.231593948757</v>
+        <v>1439.960812656384</v>
       </c>
       <c r="M20" t="n">
-        <v>1166.953031555811</v>
+        <v>1558.682250263438</v>
       </c>
       <c r="N20" t="n">
-        <v>1288.34525000435</v>
+        <v>1907.960605013577</v>
       </c>
       <c r="O20" t="n">
-        <v>2174.754016107266</v>
+        <v>2020.420854663776</v>
       </c>
       <c r="P20" t="n">
-        <v>3008.514208868588</v>
+        <v>2856.275550590866</v>
       </c>
       <c r="Q20" t="n">
-        <v>3560.403513357817</v>
+        <v>3408.164855080096</v>
       </c>
       <c r="R20" t="n">
-        <v>3581.449560011783</v>
+        <v>3581.449560011813</v>
       </c>
       <c r="S20" t="n">
-        <v>3581.449560011783</v>
+        <v>3497.70900743889</v>
       </c>
       <c r="T20" t="n">
-        <v>3364.486405343958</v>
+        <v>3497.70900743889</v>
       </c>
       <c r="U20" t="n">
-        <v>3106.203910172924</v>
+        <v>3497.70900743889</v>
       </c>
       <c r="V20" t="n">
-        <v>2748.714495299173</v>
+        <v>3384.530149226255</v>
       </c>
       <c r="W20" t="n">
-        <v>2352.32314559952</v>
+        <v>2988.138799526602</v>
       </c>
       <c r="X20" t="n">
-        <v>1940.603146767267</v>
+        <v>2576.418800694349</v>
       </c>
       <c r="Y20" t="n">
-        <v>1535.265876722158</v>
+        <v>2171.08153064924</v>
       </c>
     </row>
     <row r="21">
@@ -5807,58 +5807,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>633.5907265660157</v>
+        <v>633.5907265660164</v>
       </c>
       <c r="C21" t="n">
-        <v>516.0848230835205</v>
+        <v>516.0848230835212</v>
       </c>
       <c r="D21" t="n">
-        <v>412.2448645988056</v>
+        <v>412.2448645988062</v>
       </c>
       <c r="E21" t="n">
-        <v>307.5429308717428</v>
+        <v>307.5429308717434</v>
       </c>
       <c r="F21" t="n">
-        <v>213.897100554647</v>
+        <v>213.8971005546476</v>
       </c>
       <c r="G21" t="n">
-        <v>120.3276416495242</v>
+        <v>120.3276416495248</v>
       </c>
       <c r="H21" t="n">
-        <v>71.62899120023566</v>
+        <v>71.62899120023626</v>
       </c>
       <c r="I21" t="n">
-        <v>95.41861289228578</v>
+        <v>95.41861289228638</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8599924826563</v>
+        <v>411.962484952248</v>
       </c>
       <c r="K21" t="n">
-        <v>174.3343621860641</v>
+        <v>466.4368546556558</v>
       </c>
       <c r="L21" t="n">
-        <v>1060.74312828898</v>
+        <v>547.2117802143641</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.149147586882</v>
+        <v>644.6177995122663</v>
       </c>
       <c r="N21" t="n">
-        <v>1555.525814251149</v>
+        <v>746.9432710991365</v>
       </c>
       <c r="O21" t="n">
-        <v>1645.522913129819</v>
+        <v>836.9403699778068</v>
       </c>
       <c r="P21" t="n">
-        <v>1714.611895999811</v>
+        <v>1333.40235151585</v>
       </c>
       <c r="Q21" t="n">
-        <v>1752.684181974225</v>
+        <v>1858.139682259131</v>
       </c>
       <c r="R21" t="n">
         <v>1864.174983384258</v>
       </c>
       <c r="S21" t="n">
-        <v>1791.846635222933</v>
+        <v>1791.846635222934</v>
       </c>
       <c r="T21" t="n">
         <v>1651.918820284709</v>
@@ -5867,16 +5867,16 @@
         <v>1467.18248689364</v>
       </c>
       <c r="V21" t="n">
-        <v>1262.209348032906</v>
+        <v>1262.209348032907</v>
       </c>
       <c r="W21" t="n">
-        <v>1065.687970866123</v>
+        <v>1065.687970866124</v>
       </c>
       <c r="X21" t="n">
-        <v>902.2106246327861</v>
+        <v>902.2106246327868</v>
       </c>
       <c r="Y21" t="n">
-        <v>762.5177359860785</v>
+        <v>762.5177359860792</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>717.3125125359168</v>
+        <v>746.0944665127292</v>
       </c>
       <c r="C22" t="n">
-        <v>545.3399494148327</v>
+        <v>574.1219033916452</v>
       </c>
       <c r="D22" t="n">
-        <v>382.0231765416034</v>
+        <v>574.1219033916452</v>
       </c>
       <c r="E22" t="n">
-        <v>377.666207287541</v>
+        <v>409.3417034842619</v>
       </c>
       <c r="F22" t="n">
-        <v>377.666207287541</v>
+        <v>237.4799292588223</v>
       </c>
       <c r="G22" t="n">
-        <v>211.815269228955</v>
+        <v>71.62899120023626</v>
       </c>
       <c r="H22" t="n">
-        <v>71.62899120023566</v>
+        <v>71.62899120023626</v>
       </c>
       <c r="I22" t="n">
-        <v>71.62899120023566</v>
+        <v>71.62899120023626</v>
       </c>
       <c r="J22" t="n">
-        <v>157.2554987747837</v>
+        <v>157.2554987747843</v>
       </c>
       <c r="K22" t="n">
-        <v>430.0178424388932</v>
+        <v>430.0178424388938</v>
       </c>
       <c r="L22" t="n">
-        <v>843.8717160152066</v>
+        <v>843.8717160152071</v>
       </c>
       <c r="M22" t="n">
-        <v>1297.438235884361</v>
+        <v>1297.438235884362</v>
       </c>
       <c r="N22" t="n">
         <v>1735.827197448981</v>
@@ -5931,31 +5931,31 @@
         <v>2486.233629553468</v>
       </c>
       <c r="Q22" t="n">
-        <v>2646.556781138764</v>
+        <v>2646.556781138765</v>
       </c>
       <c r="R22" t="n">
-        <v>2617.774827161952</v>
+        <v>2646.556781138765</v>
       </c>
       <c r="S22" t="n">
-        <v>2454.715803932429</v>
+        <v>2483.497757909242</v>
       </c>
       <c r="T22" t="n">
-        <v>2213.111318650834</v>
+        <v>2241.893272627646</v>
       </c>
       <c r="U22" t="n">
-        <v>1932.949017331893</v>
+        <v>1961.730971308706</v>
       </c>
       <c r="V22" t="n">
-        <v>1651.237549939922</v>
+        <v>1680.019503916735</v>
       </c>
       <c r="W22" t="n">
-        <v>1376.385146112435</v>
+        <v>1405.167100089248</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.82124955824</v>
+        <v>1162.603203535053</v>
       </c>
       <c r="Y22" t="n">
-        <v>907.4784812479825</v>
+        <v>936.2604352247949</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>100.8795751512016</v>
       </c>
       <c r="J23" t="n">
-        <v>234.7887839553808</v>
+        <v>538.7800430623274</v>
       </c>
       <c r="K23" t="n">
-        <v>1063.147789827111</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L23" t="n">
-        <v>2132.774107127976</v>
+        <v>2436.765366234923</v>
       </c>
       <c r="M23" t="n">
-        <v>2251.49554473503</v>
+        <v>2555.486803841977</v>
       </c>
       <c r="N23" t="n">
-        <v>3386.045648276371</v>
+        <v>2676.879022290515</v>
       </c>
       <c r="O23" t="n">
-        <v>4380.667597839846</v>
+        <v>3671.50097185399</v>
       </c>
       <c r="P23" t="n">
-        <v>4471.043406416879</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q23" t="n">
-        <v>5022.932710906109</v>
+        <v>4870.694052628358</v>
       </c>
       <c r="R23" t="n">
         <v>5043.978757560075</v>
@@ -6065,31 +6065,31 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J24" t="n">
-        <v>125.6532705892103</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K24" t="n">
-        <v>180.1276402926181</v>
+        <v>817.6049369897664</v>
       </c>
       <c r="L24" t="n">
-        <v>260.9025658513265</v>
+        <v>898.3798625484748</v>
       </c>
       <c r="M24" t="n">
-        <v>358.3085851492286</v>
+        <v>995.7858818463769</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.078601140375</v>
+        <v>1098.111353433247</v>
       </c>
       <c r="O24" t="n">
-        <v>1661.075700019045</v>
+        <v>1188.108452311917</v>
       </c>
       <c r="P24" t="n">
-        <v>1730.164682889037</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q24" t="n">
-        <v>1887.390266210096</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R24" t="n">
         <v>1893.425567335223</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.5630964868826</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C25" t="n">
-        <v>574.5905333657986</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D25" t="n">
-        <v>411.2737604925693</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="E25" t="n">
-        <v>266.7305132097875</v>
+        <v>438.592287435227</v>
       </c>
       <c r="F25" t="n">
         <v>266.7305132097875</v>
@@ -6171,28 +6171,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R25" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S25" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T25" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U25" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V25" t="n">
-        <v>1680.488133890888</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.635730063401</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X25" t="n">
-        <v>1163.071833509206</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y25" t="n">
-        <v>936.7290651989483</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>538.7800430623273</v>
       </c>
       <c r="K26" t="n">
-        <v>616.2237861716967</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L26" t="n">
-        <v>718.2961338449888</v>
+        <v>2248.214446592971</v>
       </c>
       <c r="M26" t="n">
-        <v>1878.360623141539</v>
+        <v>2366.935884200025</v>
       </c>
       <c r="N26" t="n">
-        <v>2980.177010011299</v>
+        <v>2488.328102648564</v>
       </c>
       <c r="O26" t="n">
-        <v>3974.798959574774</v>
+        <v>3482.950052212039</v>
       </c>
       <c r="P26" t="n">
-        <v>4810.653655501864</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q26" t="n">
         <v>4870.694052628358</v>
@@ -6265,7 +6265,7 @@
         <v>4127.503140274543</v>
       </c>
       <c r="W26" t="n">
-        <v>3731.111790574889</v>
+        <v>3731.11179057489</v>
       </c>
       <c r="X26" t="n">
         <v>3319.391791742637</v>
@@ -6308,22 +6308,22 @@
         <v>441.2130689032133</v>
       </c>
       <c r="K27" t="n">
-        <v>495.6874386066211</v>
+        <v>817.6049369897664</v>
       </c>
       <c r="L27" t="n">
-        <v>576.4623641653295</v>
+        <v>898.3798625484748</v>
       </c>
       <c r="M27" t="n">
-        <v>673.8683834632317</v>
+        <v>995.7858818463769</v>
       </c>
       <c r="N27" t="n">
-        <v>776.1938550501019</v>
+        <v>1098.111353433247</v>
       </c>
       <c r="O27" t="n">
-        <v>866.1909539287722</v>
+        <v>1188.108452311917</v>
       </c>
       <c r="P27" t="n">
-        <v>1673.030786630042</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q27" t="n">
         <v>1781.934765925191</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>746.5630964868826</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C28" t="n">
-        <v>574.5905333657986</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D28" t="n">
-        <v>411.2737604925693</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="E28" t="n">
-        <v>272.7413493766411</v>
+        <v>438.592287435227</v>
       </c>
       <c r="F28" t="n">
-        <v>100.8795751512015</v>
+        <v>266.7305132097875</v>
       </c>
       <c r="G28" t="n">
         <v>100.8795751512015</v>
@@ -6408,28 +6408,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R28" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S28" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T28" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U28" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V28" t="n">
-        <v>1680.488133890888</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.635730063401</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X28" t="n">
-        <v>1163.071833509206</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y28" t="n">
-        <v>936.7290651989483</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F29" t="n">
-        <v>792.9116849415545</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G29" t="n">
-        <v>389.4778004379232</v>
+        <v>389.4778004379235</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8795751512016</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I29" t="n">
-        <v>100.8795751512016</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J29" t="n">
-        <v>538.7800430623274</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K29" t="n">
-        <v>1367.139048934057</v>
+        <v>882.7239649526662</v>
       </c>
       <c r="L29" t="n">
-        <v>1469.211396607349</v>
+        <v>1952.350282253532</v>
       </c>
       <c r="M29" t="n">
-        <v>2629.275885903899</v>
+        <v>3112.414771550082</v>
       </c>
       <c r="N29" t="n">
-        <v>2980.177010011299</v>
+        <v>3233.80698999862</v>
       </c>
       <c r="O29" t="n">
-        <v>3974.798959574774</v>
+        <v>4228.428939562095</v>
       </c>
       <c r="P29" t="n">
-        <v>4810.653655501864</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q29" t="n">
         <v>4870.694052628358</v>
@@ -6539,31 +6539,31 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I30" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J30" t="n">
-        <v>125.6532705892103</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K30" t="n">
-        <v>180.1276402926181</v>
+        <v>495.6874386066211</v>
       </c>
       <c r="L30" t="n">
-        <v>260.9025658513265</v>
+        <v>576.4623641653295</v>
       </c>
       <c r="M30" t="n">
-        <v>358.3085851492286</v>
+        <v>673.8683834632317</v>
       </c>
       <c r="N30" t="n">
-        <v>460.6340567360988</v>
+        <v>776.1938550501019</v>
       </c>
       <c r="O30" t="n">
-        <v>1042.478147534413</v>
+        <v>866.1909539287722</v>
       </c>
       <c r="P30" t="n">
-        <v>1849.317980235683</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q30" t="n">
-        <v>1887.390266210096</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R30" t="n">
         <v>1893.425567335223</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>746.5630964868826</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C31" t="n">
-        <v>574.5905333657986</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D31" t="n">
-        <v>411.2737604925693</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="E31" t="n">
-        <v>245.0655546454228</v>
+        <v>438.592287435227</v>
       </c>
       <c r="F31" t="n">
-        <v>100.8795751512015</v>
+        <v>266.7305132097875</v>
       </c>
       <c r="G31" t="n">
         <v>100.8795751512015</v>
@@ -6645,28 +6645,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R31" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S31" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T31" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U31" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V31" t="n">
-        <v>1680.488133890888</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.635730063401</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X31" t="n">
-        <v>1163.071833509206</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y31" t="n">
-        <v>936.7290651989483</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>2067.305427419297</v>
       </c>
       <c r="D32" t="n">
-        <v>1644.012806604297</v>
+        <v>1644.012806604298</v>
       </c>
       <c r="E32" t="n">
         <v>1218.035866752155</v>
@@ -6706,19 +6706,19 @@
         <v>1367.139048934057</v>
       </c>
       <c r="L32" t="n">
-        <v>1469.211396607349</v>
+        <v>2436.765366234923</v>
       </c>
       <c r="M32" t="n">
-        <v>1587.932834214403</v>
+        <v>3249.097584113301</v>
       </c>
       <c r="N32" t="n">
-        <v>2722.482937755744</v>
+        <v>3370.48980256184</v>
       </c>
       <c r="O32" t="n">
-        <v>3717.104887319219</v>
+        <v>3482.950052212039</v>
       </c>
       <c r="P32" t="n">
-        <v>4552.959583246309</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q32" t="n">
         <v>4870.694052628358</v>
@@ -6776,28 +6776,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I33" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J33" t="n">
-        <v>417.7557630588014</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K33" t="n">
-        <v>472.2301327622092</v>
+        <v>817.6049369897664</v>
       </c>
       <c r="L33" t="n">
-        <v>647.2940574860644</v>
+        <v>898.3798625484748</v>
       </c>
       <c r="M33" t="n">
-        <v>744.7000767839666</v>
+        <v>995.7858818463769</v>
       </c>
       <c r="N33" t="n">
-        <v>847.0255483708368</v>
+        <v>1098.111353433247</v>
       </c>
       <c r="O33" t="n">
-        <v>937.022647249507</v>
+        <v>1188.108452311917</v>
       </c>
       <c r="P33" t="n">
-        <v>1743.862479950777</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q33" t="n">
         <v>1781.934765925191</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.1172661556028</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C34" t="n">
-        <v>768.1172661556028</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D34" t="n">
-        <v>604.8004932823735</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="E34" t="n">
         <v>438.592287435227</v>
@@ -6882,28 +6882,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R34" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S34" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T34" t="n">
-        <v>2263.91607227052</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.753770951579</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V34" t="n">
-        <v>1702.042303559608</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W34" t="n">
-        <v>1427.189899732121</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.626003177926</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y34" t="n">
-        <v>958.2832348676684</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2189.970377846662</v>
+        <v>2478.568603133384</v>
       </c>
       <c r="C35" t="n">
-        <v>1763.069647859963</v>
+        <v>2051.667873146685</v>
       </c>
       <c r="D35" t="n">
-        <v>1339.777027044963</v>
+        <v>1628.375252331685</v>
       </c>
       <c r="E35" t="n">
-        <v>913.8000871928202</v>
+        <v>1202.398312479542</v>
       </c>
       <c r="F35" t="n">
-        <v>488.6759053822204</v>
+        <v>777.2741306689423</v>
       </c>
       <c r="G35" t="n">
-        <v>85.24202087858889</v>
+        <v>373.8402461653108</v>
       </c>
       <c r="H35" t="n">
         <v>85.24202087858889</v>
@@ -6937,22 +6937,22 @@
         <v>85.24202087858889</v>
       </c>
       <c r="J35" t="n">
-        <v>131.4132700820886</v>
+        <v>523.1424887897147</v>
       </c>
       <c r="K35" t="n">
-        <v>959.7722759538183</v>
+        <v>1351.501494661444</v>
       </c>
       <c r="L35" t="n">
-        <v>1224.350959536191</v>
+        <v>1453.573842334736</v>
       </c>
       <c r="M35" t="n">
-        <v>2279.220967908728</v>
+        <v>1585.058170569395</v>
       </c>
       <c r="N35" t="n">
-        <v>3334.090976281266</v>
+        <v>1706.450389017933</v>
       </c>
       <c r="O35" t="n">
-        <v>3446.551225931465</v>
+        <v>2701.072338581408</v>
       </c>
       <c r="P35" t="n">
         <v>3536.927034508498</v>
@@ -6964,25 +6964,25 @@
         <v>4262.101043929444</v>
       </c>
       <c r="S35" t="n">
-        <v>4178.360491356521</v>
+        <v>4262.101043929444</v>
       </c>
       <c r="T35" t="n">
-        <v>4019.190906468462</v>
+        <v>4262.101043929444</v>
       </c>
       <c r="U35" t="n">
-        <v>3760.908411297428</v>
+        <v>4262.101043929444</v>
       </c>
       <c r="V35" t="n">
-        <v>3403.418996423678</v>
+        <v>4111.86558600193</v>
       </c>
       <c r="W35" t="n">
-        <v>3007.027646724025</v>
+        <v>3715.474236302276</v>
       </c>
       <c r="X35" t="n">
-        <v>2595.307647891772</v>
+        <v>3303.754237470024</v>
       </c>
       <c r="Y35" t="n">
-        <v>2189.970377846662</v>
+        <v>2898.416967424914</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>85.24202087858889</v>
       </c>
       <c r="I36" t="n">
-        <v>85.57433672622717</v>
+        <v>109.031642570639</v>
       </c>
       <c r="J36" t="n">
-        <v>110.0157163165977</v>
+        <v>425.5755146306007</v>
       </c>
       <c r="K36" t="n">
-        <v>164.4900860200055</v>
+        <v>801.9673827171541</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2650115787139</v>
+        <v>882.7423082758625</v>
       </c>
       <c r="M36" t="n">
-        <v>342.671030876616</v>
+        <v>980.1483275737646</v>
       </c>
       <c r="N36" t="n">
-        <v>444.9965024634862</v>
+        <v>1082.473799160635</v>
       </c>
       <c r="O36" t="n">
-        <v>1447.415050178628</v>
+        <v>1172.470898039305</v>
       </c>
       <c r="P36" t="n">
-        <v>1516.50403304862</v>
+        <v>1241.559880909297</v>
       </c>
       <c r="Q36" t="n">
-        <v>1871.752711937484</v>
+        <v>1766.297211652578</v>
       </c>
       <c r="R36" t="n">
         <v>1877.788013062611</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>730.9255422142699</v>
+        <v>1152.19664230272</v>
       </c>
       <c r="C37" t="n">
-        <v>558.9529790931858</v>
+        <v>980.2240791816364</v>
       </c>
       <c r="D37" t="n">
-        <v>504.8592540542481</v>
+        <v>816.9073063084071</v>
       </c>
       <c r="E37" t="n">
-        <v>338.6510482071017</v>
+        <v>650.6991004612606</v>
       </c>
       <c r="F37" t="n">
-        <v>338.6510482071017</v>
+        <v>478.8373262358211</v>
       </c>
       <c r="G37" t="n">
-        <v>172.8001101485157</v>
+        <v>312.9863881772351</v>
       </c>
       <c r="H37" t="n">
         <v>172.8001101485157</v>
@@ -7119,28 +7119,28 @@
         <v>2660.169810817117</v>
       </c>
       <c r="R37" t="n">
-        <v>2631.387856840305</v>
+        <v>2660.169810817117</v>
       </c>
       <c r="S37" t="n">
-        <v>2468.328833610783</v>
+        <v>2497.110787587595</v>
       </c>
       <c r="T37" t="n">
-        <v>2226.724348329187</v>
+        <v>2255.506302305999</v>
       </c>
       <c r="U37" t="n">
-        <v>1946.562047010246</v>
+        <v>2086.121679706726</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.850579618275</v>
+        <v>2086.121679706726</v>
       </c>
       <c r="W37" t="n">
-        <v>1389.998175790788</v>
+        <v>1811.269275879239</v>
       </c>
       <c r="X37" t="n">
-        <v>1147.434279236594</v>
+        <v>1568.705379325044</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.0915109263356</v>
+        <v>1342.362611014786</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.328443775367</v>
+        <v>2075.134718629753</v>
       </c>
       <c r="C38" t="n">
-        <v>1712.328443775367</v>
+        <v>1648.233988643053</v>
       </c>
       <c r="D38" t="n">
-        <v>1628.375252331685</v>
+        <v>1224.941367828053</v>
       </c>
       <c r="E38" t="n">
-        <v>1202.398312479542</v>
+        <v>798.9644279759107</v>
       </c>
       <c r="F38" t="n">
-        <v>777.2741306689423</v>
+        <v>373.8402461653108</v>
       </c>
       <c r="G38" t="n">
         <v>373.8402461653108</v>
@@ -7174,22 +7174,22 @@
         <v>85.24202087858889</v>
       </c>
       <c r="J38" t="n">
-        <v>162.6731688402535</v>
+        <v>523.1424887897147</v>
       </c>
       <c r="K38" t="n">
-        <v>240.1169119496228</v>
+        <v>1351.501494661444</v>
       </c>
       <c r="L38" t="n">
-        <v>342.189259622915</v>
+        <v>1466.33673296234</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.059267995452</v>
+        <v>1585.058170569395</v>
       </c>
       <c r="N38" t="n">
-        <v>2451.92927636799</v>
+        <v>1706.450389017933</v>
       </c>
       <c r="O38" t="n">
-        <v>3446.551225931465</v>
+        <v>2701.072338581408</v>
       </c>
       <c r="P38" t="n">
         <v>3536.927034508498</v>
@@ -7201,25 +7201,25 @@
         <v>4262.101043929444</v>
       </c>
       <c r="S38" t="n">
-        <v>4178.360491356521</v>
+        <v>4262.101043929444</v>
       </c>
       <c r="T38" t="n">
-        <v>3961.397336688696</v>
+        <v>4262.101043929444</v>
       </c>
       <c r="U38" t="n">
-        <v>3703.114841517662</v>
+        <v>4065.921116372048</v>
       </c>
       <c r="V38" t="n">
-        <v>3345.625426643912</v>
+        <v>3708.431701498298</v>
       </c>
       <c r="W38" t="n">
-        <v>2949.234076944259</v>
+        <v>3312.040351798645</v>
       </c>
       <c r="X38" t="n">
-        <v>2537.514078112006</v>
+        <v>2900.320352966392</v>
       </c>
       <c r="Y38" t="n">
-        <v>2132.176808066897</v>
+        <v>2494.983082921282</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>85.24202087858889</v>
       </c>
       <c r="I39" t="n">
-        <v>85.57433672622717</v>
+        <v>109.031642570639</v>
       </c>
       <c r="J39" t="n">
-        <v>402.1182087861888</v>
+        <v>425.5755146306007</v>
       </c>
       <c r="K39" t="n">
-        <v>456.5925784895966</v>
+        <v>801.9673827171541</v>
       </c>
       <c r="L39" t="n">
-        <v>537.3675040483049</v>
+        <v>882.7423082758625</v>
       </c>
       <c r="M39" t="n">
-        <v>634.7735233462071</v>
+        <v>980.1483275737646</v>
       </c>
       <c r="N39" t="n">
-        <v>737.0989949330773</v>
+        <v>1082.473799160635</v>
       </c>
       <c r="O39" t="n">
-        <v>1739.517542648219</v>
+        <v>1172.470898039305</v>
       </c>
       <c r="P39" t="n">
-        <v>1808.606525518211</v>
+        <v>1241.559880909297</v>
       </c>
       <c r="Q39" t="n">
-        <v>1871.752711937484</v>
+        <v>1766.297211652578</v>
       </c>
       <c r="R39" t="n">
         <v>1877.788013062611</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>957.2683105245278</v>
+        <v>732.5794091270611</v>
       </c>
       <c r="C40" t="n">
-        <v>785.2957474034438</v>
+        <v>560.6068460059771</v>
       </c>
       <c r="D40" t="n">
-        <v>621.9789745302145</v>
+        <v>397.2900731327478</v>
       </c>
       <c r="E40" t="n">
-        <v>455.770768683068</v>
+        <v>397.2900731327478</v>
       </c>
       <c r="F40" t="n">
-        <v>312.9863881772351</v>
+        <v>225.4282989073082</v>
       </c>
       <c r="G40" t="n">
-        <v>312.9863881772351</v>
+        <v>225.4282989073082</v>
       </c>
       <c r="H40" t="n">
-        <v>172.8001101485157</v>
+        <v>85.24202087858889</v>
       </c>
       <c r="I40" t="n">
         <v>85.24202087858889</v>
@@ -7356,28 +7356,28 @@
         <v>2660.169810817117</v>
       </c>
       <c r="R40" t="n">
-        <v>2631.387856840305</v>
+        <v>2633.041723753096</v>
       </c>
       <c r="S40" t="n">
-        <v>2468.328833610783</v>
+        <v>2469.982700523574</v>
       </c>
       <c r="T40" t="n">
-        <v>2226.724348329187</v>
+        <v>2228.378215241978</v>
       </c>
       <c r="U40" t="n">
-        <v>1946.562047010246</v>
+        <v>1948.215913923038</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.850579618275</v>
+        <v>1666.504446531067</v>
       </c>
       <c r="W40" t="n">
-        <v>1389.998175790788</v>
+        <v>1391.65204270358</v>
       </c>
       <c r="X40" t="n">
-        <v>1147.434279236594</v>
+        <v>1149.088146149385</v>
       </c>
       <c r="Y40" t="n">
-        <v>1147.434279236594</v>
+        <v>922.7453778391268</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>85.24202087858889</v>
       </c>
       <c r="J41" t="n">
-        <v>131.4132700820886</v>
+        <v>523.1424887897147</v>
       </c>
       <c r="K41" t="n">
-        <v>959.7722759538183</v>
+        <v>1351.501494661444</v>
       </c>
       <c r="L41" t="n">
-        <v>2014.642284326356</v>
+        <v>2406.371503033982</v>
       </c>
       <c r="M41" t="n">
-        <v>3069.512292698893</v>
+        <v>2525.092940641036</v>
       </c>
       <c r="N41" t="n">
-        <v>3334.090976281266</v>
+        <v>2646.485159089575</v>
       </c>
       <c r="O41" t="n">
-        <v>3446.551225931465</v>
+        <v>2758.945408739773</v>
       </c>
       <c r="P41" t="n">
         <v>3536.927034508498</v>
@@ -7441,16 +7441,16 @@
         <v>4178.360491356521</v>
       </c>
       <c r="T41" t="n">
-        <v>3961.397336688696</v>
+        <v>4178.360491356521</v>
       </c>
       <c r="U41" t="n">
-        <v>3703.114841517662</v>
+        <v>3920.077996185487</v>
       </c>
       <c r="V41" t="n">
-        <v>3703.114841517662</v>
+        <v>3920.077996185487</v>
       </c>
       <c r="W41" t="n">
-        <v>3306.723491818009</v>
+        <v>3715.474236302276</v>
       </c>
       <c r="X41" t="n">
         <v>3303.754237470024</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3031.516787111202</v>
+        <v>647.2037562443691</v>
       </c>
       <c r="C42" t="n">
-        <v>2914.010883628707</v>
+        <v>529.6978527618738</v>
       </c>
       <c r="D42" t="n">
-        <v>2810.170925143992</v>
+        <v>425.8578942771588</v>
       </c>
       <c r="E42" t="n">
-        <v>2705.468991416929</v>
+        <v>321.155960550096</v>
       </c>
       <c r="F42" t="n">
-        <v>2611.823161099834</v>
+        <v>227.5101302330002</v>
       </c>
       <c r="G42" t="n">
-        <v>2518.253702194711</v>
+        <v>133.9406713278774</v>
       </c>
       <c r="H42" t="n">
-        <v>2469.555051745423</v>
+        <v>85.24202087858889</v>
       </c>
       <c r="I42" t="n">
-        <v>2469.887367593061</v>
+        <v>109.031642570639</v>
       </c>
       <c r="J42" t="n">
-        <v>2494.328747183431</v>
+        <v>425.5755146306007</v>
       </c>
       <c r="K42" t="n">
-        <v>2548.803116886839</v>
+        <v>801.9673827171541</v>
       </c>
       <c r="L42" t="n">
-        <v>2629.578042445547</v>
+        <v>882.7423082758625</v>
       </c>
       <c r="M42" t="n">
-        <v>2726.98406174345</v>
+        <v>980.1483275737646</v>
       </c>
       <c r="N42" t="n">
-        <v>3572.242330312373</v>
+        <v>1082.473799160635</v>
       </c>
       <c r="O42" t="n">
-        <v>3662.239429191043</v>
+        <v>1172.470898039305</v>
       </c>
       <c r="P42" t="n">
-        <v>3731.328412061035</v>
+        <v>1241.559880909297</v>
       </c>
       <c r="Q42" t="n">
-        <v>4256.065742804317</v>
+        <v>1766.297211652578</v>
       </c>
       <c r="R42" t="n">
-        <v>4262.101043929444</v>
+        <v>1877.788013062611</v>
       </c>
       <c r="S42" t="n">
-        <v>4189.77269576812</v>
+        <v>1805.459664901287</v>
       </c>
       <c r="T42" t="n">
-        <v>4049.844880829895</v>
+        <v>1665.531849963062</v>
       </c>
       <c r="U42" t="n">
-        <v>3865.108547438826</v>
+        <v>1480.795516571993</v>
       </c>
       <c r="V42" t="n">
-        <v>3660.135408578092</v>
+        <v>1275.822377711259</v>
       </c>
       <c r="W42" t="n">
-        <v>3463.614031411309</v>
+        <v>1079.301000544476</v>
       </c>
       <c r="X42" t="n">
-        <v>3300.136685177973</v>
+        <v>915.8236543111394</v>
       </c>
       <c r="Y42" t="n">
-        <v>3160.443796531265</v>
+        <v>776.1307656644318</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2418.838539420734</v>
+        <v>759.7074961910819</v>
       </c>
       <c r="C43" t="n">
-        <v>2418.838539420734</v>
+        <v>587.7349330699979</v>
       </c>
       <c r="D43" t="n">
-        <v>2418.838539420734</v>
+        <v>587.7349330699979</v>
       </c>
       <c r="E43" t="n">
-        <v>2252.630333573588</v>
+        <v>421.5267272228514</v>
       </c>
       <c r="F43" t="n">
-        <v>2080.768559348148</v>
+        <v>251.0929589371749</v>
       </c>
       <c r="G43" t="n">
-        <v>1914.917621289562</v>
+        <v>85.24202087858889</v>
       </c>
       <c r="H43" t="n">
-        <v>1774.731343260843</v>
+        <v>85.24202087858889</v>
       </c>
       <c r="I43" t="n">
-        <v>1687.173253990916</v>
+        <v>85.24202087858889</v>
       </c>
       <c r="J43" t="n">
-        <v>1772.799761565464</v>
+        <v>170.8685284531369</v>
       </c>
       <c r="K43" t="n">
-        <v>2045.562105229574</v>
+        <v>443.6308721172464</v>
       </c>
       <c r="L43" t="n">
-        <v>2459.415978805887</v>
+        <v>857.4847456935597</v>
       </c>
       <c r="M43" t="n">
-        <v>2912.982498675042</v>
+        <v>1311.051265562714</v>
       </c>
       <c r="N43" t="n">
-        <v>3351.371460239661</v>
+        <v>1749.440227127334</v>
       </c>
       <c r="O43" t="n">
-        <v>3763.048241168346</v>
+        <v>2161.117008056019</v>
       </c>
       <c r="P43" t="n">
-        <v>4101.777892344148</v>
+        <v>2499.846659231821</v>
       </c>
       <c r="Q43" t="n">
-        <v>4262.101043929444</v>
+        <v>2660.169810817117</v>
       </c>
       <c r="R43" t="n">
-        <v>4233.319089952632</v>
+        <v>2660.169810817117</v>
       </c>
       <c r="S43" t="n">
-        <v>4070.260066723109</v>
+        <v>2497.110787587595</v>
       </c>
       <c r="T43" t="n">
-        <v>3914.637345535651</v>
+        <v>2255.506302305999</v>
       </c>
       <c r="U43" t="n">
-        <v>3634.475044216711</v>
+        <v>1975.344000987059</v>
       </c>
       <c r="V43" t="n">
-        <v>3352.76357682474</v>
+        <v>1693.632533595087</v>
       </c>
       <c r="W43" t="n">
-        <v>3077.911172997253</v>
+        <v>1418.7801297676</v>
       </c>
       <c r="X43" t="n">
-        <v>2835.347276443058</v>
+        <v>1176.216233213406</v>
       </c>
       <c r="Y43" t="n">
-        <v>2609.0045081328</v>
+        <v>949.8734649031476</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1610.219597999446</v>
+        <v>1591.091285148131</v>
       </c>
       <c r="C44" t="n">
-        <v>1183.318868012746</v>
+        <v>1164.190555161431</v>
       </c>
       <c r="D44" t="n">
-        <v>1183.318868012746</v>
+        <v>740.8979343464314</v>
       </c>
       <c r="E44" t="n">
-        <v>1183.318868012746</v>
+        <v>740.8979343464314</v>
       </c>
       <c r="F44" t="n">
-        <v>758.1946862021459</v>
+        <v>740.8979343464314</v>
       </c>
       <c r="G44" t="n">
-        <v>354.7608016985145</v>
+        <v>354.7608016985139</v>
       </c>
       <c r="H44" t="n">
-        <v>66.16257641179257</v>
+        <v>66.16257641179197</v>
       </c>
       <c r="I44" t="n">
-        <v>66.16257641179257</v>
+        <v>66.16257641179197</v>
       </c>
       <c r="J44" t="n">
-        <v>112.3338256152922</v>
+        <v>504.0630443229178</v>
       </c>
       <c r="K44" t="n">
-        <v>189.7775687246616</v>
+        <v>1322.824927418844</v>
       </c>
       <c r="L44" t="n">
-        <v>291.8499163979537</v>
+        <v>1424.897275092136</v>
       </c>
       <c r="M44" t="n">
-        <v>824.0388265282776</v>
+        <v>1543.61871269919</v>
       </c>
       <c r="N44" t="n">
-        <v>945.431044976816</v>
+        <v>1665.010931147728</v>
       </c>
       <c r="O44" t="n">
-        <v>1764.192928072749</v>
+        <v>1777.471180797927</v>
       </c>
       <c r="P44" t="n">
-        <v>2582.954811168682</v>
+        <v>2582.954811168653</v>
       </c>
       <c r="Q44" t="n">
-        <v>3134.844115657912</v>
+        <v>3134.844115657882</v>
       </c>
       <c r="R44" t="n">
-        <v>3308.128820589629</v>
+        <v>3308.128820589599</v>
       </c>
       <c r="S44" t="n">
-        <v>3224.388268016706</v>
+        <v>3224.388268016676</v>
       </c>
       <c r="T44" t="n">
-        <v>3224.388268016706</v>
+        <v>3224.388268016676</v>
       </c>
       <c r="U44" t="n">
-        <v>2966.105772845672</v>
+        <v>3224.388268016676</v>
       </c>
       <c r="V44" t="n">
-        <v>2966.105772845672</v>
+        <v>3224.388268016676</v>
       </c>
       <c r="W44" t="n">
-        <v>2569.714423146019</v>
+        <v>2827.996918317023</v>
       </c>
       <c r="X44" t="n">
-        <v>2435.405232336085</v>
+        <v>2416.276919484771</v>
       </c>
       <c r="Y44" t="n">
-        <v>2030.067962290976</v>
+        <v>2010.939649439661</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>628.1243117775728</v>
+        <v>628.1243117775721</v>
       </c>
       <c r="C45" t="n">
-        <v>510.6184082950775</v>
+        <v>510.6184082950768</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7784498103625</v>
+        <v>406.7784498103619</v>
       </c>
       <c r="E45" t="n">
-        <v>302.0765160832997</v>
+        <v>302.0765160832991</v>
       </c>
       <c r="F45" t="n">
-        <v>208.4306857662039</v>
+        <v>208.4306857662033</v>
       </c>
       <c r="G45" t="n">
-        <v>114.8612268610811</v>
+        <v>114.8612268610805</v>
       </c>
       <c r="H45" t="n">
-        <v>66.16257641179257</v>
+        <v>66.16257641179197</v>
       </c>
       <c r="I45" t="n">
-        <v>89.9521981038427</v>
+        <v>89.95219810384211</v>
       </c>
       <c r="J45" t="n">
-        <v>114.3935776942133</v>
+        <v>406.4960701638038</v>
       </c>
       <c r="K45" t="n">
-        <v>168.867947397621</v>
+        <v>782.8879382503569</v>
       </c>
       <c r="L45" t="n">
-        <v>249.6428729563294</v>
+        <v>863.6628638090652</v>
       </c>
       <c r="M45" t="n">
-        <v>347.0488922542315</v>
+        <v>961.0688831069674</v>
       </c>
       <c r="N45" t="n">
-        <v>449.3743638411017</v>
+        <v>1063.394354693838</v>
       </c>
       <c r="O45" t="n">
-        <v>1268.136246937035</v>
+        <v>1153.391453572508</v>
       </c>
       <c r="P45" t="n">
-        <v>1337.225229807026</v>
+        <v>1222.480436442499</v>
       </c>
       <c r="Q45" t="n">
-        <v>1852.673267470688</v>
+        <v>1747.217767185781</v>
       </c>
       <c r="R45" t="n">
-        <v>1858.708568595815</v>
+        <v>1858.708568595814</v>
       </c>
       <c r="S45" t="n">
-        <v>1786.380220434491</v>
+        <v>1786.38022043449</v>
       </c>
       <c r="T45" t="n">
-        <v>1646.452405496266</v>
+        <v>1646.452405496265</v>
       </c>
       <c r="U45" t="n">
-        <v>1461.716072105197</v>
+        <v>1461.716072105196</v>
       </c>
       <c r="V45" t="n">
-        <v>1256.742933244463</v>
+        <v>1256.742933244462</v>
       </c>
       <c r="W45" t="n">
-        <v>1060.22155607768</v>
+        <v>1060.221556077679</v>
       </c>
       <c r="X45" t="n">
-        <v>896.7442098443431</v>
+        <v>896.7442098443424</v>
       </c>
       <c r="Y45" t="n">
-        <v>757.0513211976355</v>
+        <v>757.0513211976348</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>967.2662597773381</v>
+        <v>740.6280517242851</v>
       </c>
       <c r="C46" t="n">
-        <v>795.293696656254</v>
+        <v>568.6554886032011</v>
       </c>
       <c r="D46" t="n">
-        <v>631.9769237830247</v>
+        <v>568.6554886032011</v>
       </c>
       <c r="E46" t="n">
-        <v>465.7687179358783</v>
+        <v>402.4472827560546</v>
       </c>
       <c r="F46" t="n">
-        <v>293.9069437104387</v>
+        <v>230.585508530615</v>
       </c>
       <c r="G46" t="n">
-        <v>293.9069437104387</v>
+        <v>66.16257641179197</v>
       </c>
       <c r="H46" t="n">
-        <v>153.7206656817194</v>
+        <v>66.16257641179197</v>
       </c>
       <c r="I46" t="n">
-        <v>66.16257641179257</v>
+        <v>66.16257641179197</v>
       </c>
       <c r="J46" t="n">
-        <v>151.7890839863406</v>
+        <v>151.78908398634</v>
       </c>
       <c r="K46" t="n">
-        <v>424.5514276504501</v>
+        <v>424.5514276504496</v>
       </c>
       <c r="L46" t="n">
-        <v>838.4053012267634</v>
+        <v>838.405301226763</v>
       </c>
       <c r="M46" t="n">
         <v>1291.971821095918</v>
       </c>
       <c r="N46" t="n">
-        <v>1730.360782660538</v>
+        <v>1730.360782660537</v>
       </c>
       <c r="O46" t="n">
         <v>2142.037563589222</v>
       </c>
       <c r="P46" t="n">
-        <v>2480.767214765025</v>
+        <v>2480.767214765024</v>
       </c>
       <c r="Q46" t="n">
-        <v>2641.090366350321</v>
+        <v>2641.09036635032</v>
       </c>
       <c r="R46" t="n">
-        <v>2612.308412373509</v>
+        <v>2641.09036635032</v>
       </c>
       <c r="S46" t="n">
-        <v>2449.249389143986</v>
+        <v>2478.031343120798</v>
       </c>
       <c r="T46" t="n">
-        <v>2207.64490386239</v>
+        <v>2236.426857839202</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.48260254345</v>
+        <v>1956.264556520262</v>
       </c>
       <c r="V46" t="n">
-        <v>1645.771135151479</v>
+        <v>1674.553089128291</v>
       </c>
       <c r="W46" t="n">
-        <v>1370.918731323992</v>
+        <v>1399.700685300804</v>
       </c>
       <c r="X46" t="n">
-        <v>1370.918731323992</v>
+        <v>1157.136788746609</v>
       </c>
       <c r="Y46" t="n">
-        <v>1157.432228489404</v>
+        <v>930.7940204363508</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,13 +7996,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.616039913105</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>465.1567191589064</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>100.692965709293</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,13 +8142,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>360.4858157331555</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
         <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
-        <v>112.616039913105</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>465.1567191589062</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>381.2527255747679</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,10 +8315,10 @@
         <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8385,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>26.57325859521377</v>
+        <v>313.4610661002594</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>363.0332573709691</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8540,19 +8540,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>99.28895563385612</v>
       </c>
       <c r="O9" t="n">
-        <v>101.1178171425365</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039384</v>
+        <v>64.31013128815742</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>165.1657975202894</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>578.6433310272146</v>
+        <v>578.6433310272147</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>534.2509316947206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>565.5806386356348</v>
+        <v>218.7177877010372</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>348.8634386136936</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>578.6433310272147</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>543.2731224001141</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>565.580638635635</v>
+        <v>218.7177877010372</v>
       </c>
       <c r="Q14" t="n">
-        <v>156.1436068148965</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>184.4739949842547</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>565.9631736844865</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>414.1888511105684</v>
+        <v>578.6433310272147</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>553.7659526798179</v>
       </c>
       <c r="M17" t="n">
-        <v>536.9486901204622</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>161.7689131653964</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L18" t="n">
-        <v>575.2785002703066</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>558.4794156852624</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>84.56585768737034</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>230.1880164662632</v>
       </c>
       <c r="O20" t="n">
-        <v>781.7661782350679</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>750.8933173578667</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>813.7715561052605</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>298.0315101791885</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>431.6898976444961</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>88.62420161684804</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>562.5535027354595</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.3568660067131</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>786.8717676622442</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>990.3274428497191</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,7 +9956,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.54716497043907</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10114,25 +10114,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>269.1920997787571</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>231.8271774331934</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>496.8151433531751</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>325.1691902860052</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,22 +10354,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>700.6169497690147</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>260.2970426823783</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L33" t="n">
-        <v>95.24141329812805</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>164.1478140495762</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>945.6046169348315</v>
+        <v>12.89180871475149</v>
       </c>
       <c r="N35" t="n">
-        <v>942.9068585090898</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>325.1691902860057</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>320.3801948630813</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>31.57565531127768</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>12.89180871475155</v>
       </c>
       <c r="M38" t="n">
-        <v>945.6046169348315</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>942.9068585090898</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>325.1691902860057</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.32717216652459</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,16 +11068,16 @@
         <v>962.4218794941871</v>
       </c>
       <c r="M41" t="n">
-        <v>945.6046169348315</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>144.6327930644792</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>694.5513304966577</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>325.1691902860057</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>750.4371686687402</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>748.8062020066226</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>417.6439116396662</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>713.4359933795294</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>735.7435096150502</v>
+        <v>722.3311331249413</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>736.1260446639018</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>482.1977289790379</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V11" t="n">
-        <v>264.9915432661923</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>331.1940887480209</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>140.1981411287974</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.714739435465901</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>313.2754721190496</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>394.7478909587715</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>64.60165138462068</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.1115716853932</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>215.63410988828</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>399.3995456585952</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>214.7935231211468</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>116.7113697386857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.413725880365234</v>
       </c>
       <c r="F19" t="n">
-        <v>166.1834520323382</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I19" t="n">
         <v>86.68250837722755</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>210.3978027809609</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.8674510945047</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>160.2327242271531</v>
+        <v>1.413725880365462</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I22" t="n">
         <v>86.68250837722755</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>21.448308978721</v>
+        <v>1.413725880365234</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>27.39903678390607</v>
+        <v>1.413725880365234</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.7844152484321</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.413725880365234</v>
       </c>
       <c r="F31" t="n">
-        <v>27.39903678390604</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.7844152484321</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.413725880365234</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>21.3386279720327</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T35" t="n">
-        <v>57.21563408196795</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>205.1814173767739</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>108.1308173559487</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>109.6699019324707</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>335.9460350776047</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>61.48154193750196</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>28.78661978241058</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.1924286780001</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.637328243663397</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>189.8697139182779</v>
       </c>
       <c r="X41" t="n">
-        <v>404.6632370394246</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.41372588036549</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>85.12194645319624</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>17.12378433715685</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>274.6366999420959</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.1924286780001</v>
+        <v>1.413725880365291</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.72770282091304</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>694977.3938079778</v>
+        <v>694977.3938079779</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>694977.3938079778</v>
+        <v>694977.3938079779</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>694977.3938079778</v>
+        <v>694977.3938079779</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568573.504239674</v>
+        <v>568573.504239677</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715922.0117960753</v>
+        <v>715922.0117960752</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715922.0117960753</v>
+        <v>715922.0117960752</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>715922.0117960753</v>
+        <v>715922.0117960752</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>715922.0117960754</v>
+        <v>715922.0117960752</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637148.5319994231</v>
+        <v>637148.5319994229</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637148.5319994231</v>
+        <v>637148.5319994229</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541036.684389801</v>
+        <v>541036.6843897981</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393148.8009075351</v>
+      </c>
+      <c r="C2" t="n">
         <v>393148.800907535</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>393148.8009075351</v>
-      </c>
-      <c r="D2" t="n">
-        <v>393148.800907535</v>
       </c>
       <c r="E2" t="n">
         <v>260423.0245760592</v>
@@ -26328,13 +26328,13 @@
         <v>260423.0245760591</v>
       </c>
       <c r="G2" t="n">
-        <v>260423.024576059</v>
+        <v>260423.0245760591</v>
       </c>
       <c r="H2" t="n">
-        <v>310152.4956948183</v>
+        <v>310152.4956948197</v>
       </c>
       <c r="I2" t="n">
-        <v>386392.4550043163</v>
+        <v>386392.4550043165</v>
       </c>
       <c r="J2" t="n">
         <v>386392.4550043166</v>
@@ -26343,10 +26343,10 @@
         <v>386392.4550043163</v>
       </c>
       <c r="L2" t="n">
-        <v>386392.4550043164</v>
+        <v>386392.4550043165</v>
       </c>
       <c r="M2" t="n">
-        <v>345634.0720796337</v>
+        <v>345634.0720796332</v>
       </c>
       <c r="N2" t="n">
         <v>345634.0720796334</v>
@@ -26355,7 +26355,7 @@
         <v>345634.0720796334</v>
       </c>
       <c r="P2" t="n">
-        <v>295904.6009608743</v>
+        <v>295904.600960873</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>237450.5378441405</v>
+        <v>237450.5378441403</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>64347.57290177308</v>
+        <v>64347.57290177506</v>
       </c>
       <c r="I3" t="n">
-        <v>97229.30668530983</v>
+        <v>97229.30668530788</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26423,19 +26423,19 @@
         <v>230061.7875075233</v>
       </c>
       <c r="D4" t="n">
-        <v>230061.7875075232</v>
+        <v>230061.7875075233</v>
       </c>
       <c r="E4" t="n">
-        <v>58233.2198846709</v>
+        <v>58233.21988467092</v>
       </c>
       <c r="F4" t="n">
-        <v>58233.21988467091</v>
+        <v>58233.21988467092</v>
       </c>
       <c r="G4" t="n">
-        <v>58233.21988467091</v>
+        <v>58233.21988467092</v>
       </c>
       <c r="H4" t="n">
-        <v>75259.033892159</v>
+        <v>75259.03389215952</v>
       </c>
       <c r="I4" t="n">
         <v>101361.2090800293</v>
@@ -26444,7 +26444,7 @@
         <v>101361.2090800293</v>
       </c>
       <c r="K4" t="n">
-        <v>101361.2090800294</v>
+        <v>101361.2090800293</v>
       </c>
       <c r="L4" t="n">
         <v>101361.2090800294</v>
@@ -26456,10 +26456,10 @@
         <v>87406.81480818143</v>
       </c>
       <c r="O4" t="n">
-        <v>87406.81480818141</v>
+        <v>87406.81480818143</v>
       </c>
       <c r="P4" t="n">
-        <v>70381.00080069332</v>
+        <v>70381.0008006928</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>44797.1234772162</v>
       </c>
       <c r="H5" t="n">
-        <v>59297.5012719814</v>
+        <v>59297.50127198185</v>
       </c>
       <c r="I5" t="n">
         <v>81527.94507471543</v>
@@ -26511,7 +26511,7 @@
         <v>69643.40382752984</v>
       </c>
       <c r="P5" t="n">
-        <v>55143.02603276465</v>
+        <v>55143.0260327642</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53219.42148833704</v>
+        <v>-53219.42148833702</v>
       </c>
       <c r="C6" t="n">
+        <v>101406.2991297834</v>
+      </c>
+      <c r="D6" t="n">
         <v>101406.2991297835</v>
       </c>
-      <c r="D6" t="n">
-        <v>101406.2991297834</v>
-      </c>
       <c r="E6" t="n">
-        <v>-80057.85662996839</v>
+        <v>-80549.43357934411</v>
       </c>
       <c r="F6" t="n">
-        <v>157392.681214172</v>
+        <v>156901.1042647962</v>
       </c>
       <c r="G6" t="n">
-        <v>157392.681214172</v>
+        <v>156901.1042647962</v>
       </c>
       <c r="H6" t="n">
-        <v>111248.3876289048</v>
+        <v>110940.9939058932</v>
       </c>
       <c r="I6" t="n">
-        <v>106273.9941642618</v>
+        <v>106248.9706609186</v>
       </c>
       <c r="J6" t="n">
-        <v>82780.78390681493</v>
+        <v>82755.76040346967</v>
       </c>
       <c r="K6" t="n">
-        <v>203503.3008495716</v>
+        <v>203478.2773462263</v>
       </c>
       <c r="L6" t="n">
-        <v>203503.3008495716</v>
+        <v>203478.2773462264</v>
       </c>
       <c r="M6" t="n">
-        <v>188583.8534439225</v>
+        <v>188407.8729667816</v>
       </c>
       <c r="N6" t="n">
-        <v>188583.8534439222</v>
+        <v>188407.8729667817</v>
       </c>
       <c r="O6" t="n">
-        <v>188583.8534439221</v>
+        <v>188407.8729667818</v>
       </c>
       <c r="P6" t="n">
-        <v>170380.5741274164</v>
+        <v>170020.4104239098</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222.9113743028578</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
         <v>222.9113743028576</v>
@@ -26807,7 +26807,7 @@
         <v>656.8693341679918</v>
       </c>
       <c r="H4" t="n">
-        <v>895.3623900029457</v>
+        <v>895.3623900029531</v>
       </c>
       <c r="I4" t="n">
         <v>1260.994689390019</v>
@@ -26831,7 +26831,7 @@
         <v>1065.525260982361</v>
       </c>
       <c r="P4" t="n">
-        <v>827.0322051474071</v>
+        <v>827.0322051473997</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222.9113743028578</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>238.4930558349539</v>
+        <v>238.4930558349612</v>
       </c>
       <c r="I4" t="n">
-        <v>365.632299387073</v>
+        <v>365.6322993870656</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>238.4930558349539</v>
+        <v>238.4930558349612</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>353.0609246327051</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>268.7802518564453</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>94.04720037797189</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>65.66713238793912</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>312.1559061278481</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.17407713899934</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>148.401907541626</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27830,19 +27830,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>107.5634614771281</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>56.38454581829637</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>125.6917606035315</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>187.4508478321089</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>199.0347473292335</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.896126127850684</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H11" t="n">
-        <v>9.177451706850819</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396353</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
-        <v>76.05758494366705</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K11" t="n">
-        <v>113.9906039355865</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L11" t="n">
-        <v>141.4154239207969</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M11" t="n">
-        <v>157.3519069469615</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N11" t="n">
-        <v>159.8980253077173</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O11" t="n">
-        <v>150.987171123902</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P11" t="n">
-        <v>128.8640573425883</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.77154038893562</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R11" t="n">
-        <v>56.29128287860058</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S11" t="n">
-        <v>20.42047413839748</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T11" t="n">
-        <v>3.922792124666371</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0716900902280547</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4794697485004866</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H12" t="n">
-        <v>4.630668360517858</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I12" t="n">
-        <v>16.50805932337202</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J12" t="n">
-        <v>45.29937654582888</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K12" t="n">
-        <v>77.42384969536148</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L12" t="n">
-        <v>104.1059206119149</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M12" t="n">
-        <v>121.4866989950575</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N12" t="n">
-        <v>124.7020904225016</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O12" t="n">
-        <v>114.0780502057276</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P12" t="n">
-        <v>91.55769258865872</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.20389280858844</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R12" t="n">
-        <v>29.76918315689865</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S12" t="n">
-        <v>8.90594028464719</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T12" t="n">
-        <v>1.932599556455908</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03154406240134781</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4019713307100714</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H13" t="n">
-        <v>3.573890558495001</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I13" t="n">
-        <v>12.08837419989924</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J13" t="n">
-        <v>28.41937308120205</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K13" t="n">
-        <v>46.70176005886101</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L13" t="n">
-        <v>59.76217402211372</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M13" t="n">
-        <v>63.010833231216</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N13" t="n">
-        <v>61.51257645311488</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O13" t="n">
-        <v>56.81682045345629</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P13" t="n">
-        <v>48.6166053069708</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.65961751973153</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R13" t="n">
-        <v>18.07409274265466</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S13" t="n">
-        <v>7.005264008829151</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T13" t="n">
-        <v>1.717513867579396</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0219257089478221</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34704,10 +34704,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.49136530850697</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>324.7212149383462</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.49136530850697</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>442.7574853255729</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N6" t="n">
-        <v>359.9096973612262</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>5.82435761961338</v>
+        <v>292.712165124659</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
-        <v>324.7212149383462</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>77.94592742031445</v>
+      </c>
+      <c r="O9" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N9" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O9" t="n">
-        <v>77.94592742031428</v>
       </c>
       <c r="P9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391535</v>
+        <v>39.69056852337247</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>211.8034229783699</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K11" t="n">
         <v>656.8693341679918</v>
       </c>
       <c r="L11" t="n">
-        <v>103.103381488174</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M11" t="n">
-        <v>119.9206440475297</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N11" t="n">
-        <v>656.8693341679918</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O11" t="n">
-        <v>113.5962117678779</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P11" t="n">
-        <v>656.8693341679918</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.64686578433758</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R11" t="n">
-        <v>21.25863298380411</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3356725733720189</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J12" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K12" t="n">
-        <v>55.02461586202814</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L12" t="n">
-        <v>81.59083389768533</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M12" t="n">
-        <v>98.38991848272951</v>
+        <v>423.5591087687347</v>
       </c>
       <c r="N12" t="n">
-        <v>103.3590622089599</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O12" t="n">
-        <v>90.9061604835054</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P12" t="n">
-        <v>418.6502899975236</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q12" t="n">
         <v>530.0377078214968</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>86.49142179247278</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K13" t="n">
         <v>275.5175188526359</v>
@@ -35576,10 +35576,10 @@
         <v>418.0342157336498</v>
       </c>
       <c r="M13" t="n">
-        <v>458.147999867833</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N13" t="n">
-        <v>442.8171328935551</v>
+        <v>442.817132893555</v>
       </c>
       <c r="O13" t="n">
         <v>415.8351322511967</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K14" t="n">
         <v>656.8693341679918</v>
@@ -35661,16 +35661,16 @@
         <v>122.6184024732711</v>
       </c>
       <c r="O14" t="n">
-        <v>656.8693341679918</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P14" t="n">
-        <v>656.8693341679918</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.790472599234</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R14" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J15" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K15" t="n">
-        <v>239.4986108462828</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L15" t="n">
         <v>81.59083389768524</v>
@@ -35740,7 +35740,7 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O15" t="n">
-        <v>656.8693341679918</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P15" t="n">
         <v>69.78685138383</v>
@@ -35749,7 +35749,7 @@
         <v>530.0377078214968</v>
       </c>
       <c r="R15" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K17" t="n">
-        <v>492.4148542513455</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L17" t="n">
-        <v>103.1033814881739</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="M17" t="n">
-        <v>656.8693341679918</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N17" t="n">
         <v>122.6184024732711</v>
@@ -35904,10 +35904,10 @@
         <v>91.28869553235688</v>
       </c>
       <c r="Q17" t="n">
-        <v>557.4639439285145</v>
+        <v>222.4157789497339</v>
       </c>
       <c r="R17" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>24.02992090106073</v>
       </c>
       <c r="J18" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L18" t="n">
-        <v>656.8693341679918</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M18" t="n">
-        <v>656.8693341679918</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N18" t="n">
-        <v>187.9249198963302</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O18" t="n">
         <v>90.90616048350532</v>
@@ -35983,10 +35983,10 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R18" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K20" t="n">
         <v>836.7262685573027</v>
@@ -36132,19 +36132,19 @@
         <v>119.9206440475296</v>
       </c>
       <c r="N20" t="n">
-        <v>122.6184024732711</v>
+        <v>352.8064189395344</v>
       </c>
       <c r="O20" t="n">
-        <v>895.3623900029457</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P20" t="n">
-        <v>842.1820128902236</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q20" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R20" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>24.02992090106073</v>
       </c>
       <c r="J21" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K21" t="n">
         <v>55.02461586202807</v>
       </c>
       <c r="L21" t="n">
-        <v>895.3623900029457</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M21" t="n">
         <v>98.38991848272941</v>
       </c>
       <c r="N21" t="n">
-        <v>401.3905723881483</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O21" t="n">
         <v>90.90616048350532</v>
       </c>
       <c r="P21" t="n">
-        <v>69.78685138383</v>
+        <v>501.4767490283261</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R21" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>135.2618270749285</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K23" t="n">
         <v>836.7262685573027</v>
@@ -36369,19 +36369,19 @@
         <v>119.9206440475296</v>
       </c>
       <c r="N23" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O23" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P23" t="n">
-        <v>91.28869553235688</v>
+        <v>653.8421982678163</v>
       </c>
       <c r="Q23" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R23" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J24" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K24" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L24" t="n">
         <v>81.59083389768524</v>
@@ -36448,7 +36448,7 @@
         <v>98.38991848272941</v>
       </c>
       <c r="N24" t="n">
-        <v>1225.020218172875</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O24" t="n">
         <v>90.90616048350532</v>
@@ -36457,10 +36457,10 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.813720526323</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R24" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K26" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L26" t="n">
-        <v>103.1033814881739</v>
+        <v>889.9751491504181</v>
       </c>
       <c r="M26" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N26" t="n">
-        <v>1112.94584532299</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O26" t="n">
         <v>1004.668635922702</v>
@@ -36615,7 +36615,7 @@
         <v>844.2976726536263</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R26" t="n">
         <v>175.035055486583</v>
@@ -36676,7 +36676,7 @@
         <v>319.7412849090522</v>
       </c>
       <c r="K27" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L27" t="n">
         <v>81.59083389768524</v>
@@ -36691,10 +36691,10 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P27" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.004019490049</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R27" t="n">
         <v>112.6169711212452</v>
@@ -36834,25 +36834,25 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K29" t="n">
-        <v>836.7262685573027</v>
+        <v>347.4181029195342</v>
       </c>
       <c r="L29" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M29" t="n">
         <v>1171.782312420758</v>
       </c>
       <c r="N29" t="n">
-        <v>354.4455799064646</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O29" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P29" t="n">
-        <v>844.2976726536263</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q29" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R29" t="n">
         <v>175.035055486583</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J30" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K30" t="n">
         <v>55.02461586202807</v>
@@ -36925,16 +36925,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O30" t="n">
-        <v>587.7213038366805</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P30" t="n">
-        <v>814.9897300012829</v>
+        <v>394.9560416698352</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R30" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>836.7262685573027</v>
       </c>
       <c r="L32" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M32" t="n">
-        <v>119.9206440475296</v>
+        <v>820.5375938165442</v>
       </c>
       <c r="N32" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O32" t="n">
-        <v>1004.668635922702</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P32" t="n">
         <v>844.2976726536263</v>
       </c>
       <c r="Q32" t="n">
-        <v>320.9439084667159</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R32" t="n">
         <v>175.035055486583</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J33" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K33" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L33" t="n">
-        <v>176.8322471958133</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M33" t="n">
         <v>98.38991848272941</v>
@@ -37165,10 +37165,10 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P33" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R33" t="n">
         <v>112.6169711212452</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K35" t="n">
         <v>836.7262685573027</v>
       </c>
       <c r="L35" t="n">
-        <v>267.2511955377501</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M35" t="n">
-        <v>1065.525260982361</v>
+        <v>132.8124527622811</v>
       </c>
       <c r="N35" t="n">
-        <v>1065.525260982361</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O35" t="n">
-        <v>113.5962117678778</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P35" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q35" t="n">
         <v>557.4639439285145</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J36" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K36" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480338</v>
       </c>
       <c r="L36" t="n">
         <v>81.59083389768524</v>
@@ -37399,16 +37399,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O36" t="n">
-        <v>1012.543987591052</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P36" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q36" t="n">
-        <v>358.8370493826912</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R36" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>78.21328076935815</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K38" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L38" t="n">
-        <v>103.1033814881739</v>
+        <v>115.9951902029255</v>
       </c>
       <c r="M38" t="n">
-        <v>1065.525260982361</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N38" t="n">
-        <v>1065.525260982361</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O38" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P38" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q38" t="n">
         <v>557.4639439285145</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J39" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K39" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480338</v>
       </c>
       <c r="L39" t="n">
         <v>81.59083389768524</v>
@@ -37636,16 +37636,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O39" t="n">
-        <v>1012.543987591052</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P39" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.78402668613448</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R39" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K41" t="n">
         <v>836.7262685573027</v>
@@ -37788,16 +37788,16 @@
         <v>1065.525260982361</v>
       </c>
       <c r="M41" t="n">
-        <v>1065.525260982361</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N41" t="n">
-        <v>267.2511955377503</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O41" t="n">
         <v>113.5962117678778</v>
       </c>
       <c r="P41" t="n">
-        <v>91.28869553235688</v>
+        <v>785.8400260290146</v>
       </c>
       <c r="Q41" t="n">
         <v>557.4639439285145</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J42" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K42" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480338</v>
       </c>
       <c r="L42" t="n">
         <v>81.59083389768524</v>
@@ -37870,7 +37870,7 @@
         <v>98.38991848272941</v>
       </c>
       <c r="N42" t="n">
-        <v>853.7962308777001</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O42" t="n">
         <v>90.90616048350532</v>
@@ -37882,7 +37882,7 @@
         <v>530.0377078214968</v>
       </c>
       <c r="R42" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K44" t="n">
-        <v>78.22600314077711</v>
+        <v>827.0322051473997</v>
       </c>
       <c r="L44" t="n">
         <v>103.1033814881739</v>
       </c>
       <c r="M44" t="n">
-        <v>537.5645556871958</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N44" t="n">
         <v>122.6184024732711</v>
       </c>
       <c r="O44" t="n">
-        <v>827.0322051474071</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P44" t="n">
-        <v>827.0322051474071</v>
+        <v>813.6198286572982</v>
       </c>
       <c r="Q44" t="n">
         <v>557.4639439285145</v>
@@ -38095,10 +38095,10 @@
         <v>24.02992090106073</v>
       </c>
       <c r="J45" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K45" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L45" t="n">
         <v>81.59083389768524</v>
@@ -38110,16 +38110,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O45" t="n">
-        <v>827.0322051474071</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P45" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q45" t="n">
-        <v>520.6545834986479</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R45" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
